--- a/morse_decoder/charset.xlsx
+++ b/morse_decoder/charset.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">decode</t>
   </si>
   <si>
-    <t xml:space="preserve">endcode</t>
+    <t xml:space="preserve">encode</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">--**--</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -214,6 +217,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -273,8 +277,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,252 +303,257 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
